--- a/reporteSalida.xlsx
+++ b/reporteSalida.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -47,13 +47,13 @@
     <t>Valor_VentaTotal</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Fri Jun 05 16:46:48 COT 2020</t>
-  </si>
-  <si>
-    <t>minigay</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:22:03 COT 2020</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Admin</t>
@@ -65,49 +65,139 @@
     <t>Cliente no registrado</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>azucar lb</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Cepillo Colgate</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>45000.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:27:55 COT 2020</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Arroz Suelto</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>14400.0</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Arroz Diana lb</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:54:45 COT 2020</t>
+  </si>
+  <si>
+    <t>venta prueba</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>51000.0</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Wed Jun 03 18:51:06 COT 2020</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Atun Isabel</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5400.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Thu Jun 04 20:21:53 COT 2020</t>
+  </si>
+  <si>
+    <t>Jairo</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1800.0</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>unidades</t>
-  </si>
-  <si>
-    <t>4000.0</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>bombones</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>5000.0</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>frutiño</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>6000.0</t>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Sat Jun 06 11:42:24 COT 2020</t>
+  </si>
+  <si>
+    <t>DevolucionSalida</t>
+  </si>
+  <si>
+    <t>3600.0</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -236,7 +326,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -251,27 +341,27 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -286,24 +376,304 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="L5" t="n">
-        <v>15000.0</v>
+        <v>190200.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/reporteSalida.xlsx
+++ b/reporteSalida.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -47,157 +47,139 @@
     <t>Valor_VentaTotal</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Mon Jun 01 18:22:03 COT 2020</t>
-  </si>
-  <si>
-    <t/>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 02:10:46 COT 2020</t>
+  </si>
+  <si>
+    <t>devolucion</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>DevolucionSalida</t>
+  </si>
+  <si>
+    <t>bairon</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>frutiño</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>gelatina</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 02:11:09 COT 2020</t>
+  </si>
+  <si>
+    <t>prestamo</t>
+  </si>
+  <si>
+    <t>PrestamoSalida</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>vive 100</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>shampoo 10ml</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 03:05:05 COT 2020</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
     <t>Venta</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>bombones</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 03:06:22 COT 2020</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 16:38:05 COT 2020</t>
+  </si>
+  <si>
     <t>Cliente no registrado</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Cepillo Colgate</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>45000.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Mon Jun 01 18:27:55 COT 2020</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Arroz Suelto</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>14400.0</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Arroz Diana lb</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>15000.0</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Mon Jun 01 18:54:45 COT 2020</t>
-  </si>
-  <si>
-    <t>venta prueba</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>51000.0</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Wed Jun 03 18:51:06 COT 2020</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Atun Isabel</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>12000.0</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>5400.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Thu Jun 04 20:21:53 COT 2020</t>
-  </si>
-  <si>
-    <t>Jairo</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1800.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3000.0</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Sat Jun 06 11:42:24 COT 2020</t>
-  </si>
-  <si>
-    <t>DevolucionSalida</t>
-  </si>
-  <si>
-    <t>3600.0</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 16:40:28 COT 2020</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
 </sst>
 </file>
@@ -326,7 +308,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -341,164 +323,164 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="L5" t="n">
-        <v>190200.0</v>
+        <v>15000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -506,174 +488,174 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/reporteSalida.xlsx
+++ b/reporteSalida.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -47,13 +47,13 @@
     <t>Valor_VentaTotal</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Fri Jun 05 16:46:48 COT 2020</t>
-  </si>
-  <si>
-    <t>minigay</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:22:03 COT 2020</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Admin</t>
@@ -65,49 +65,169 @@
     <t>Cliente no registrado</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>azucar lb</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Cepillo Colgate</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>45000.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:27:55 COT 2020</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Arroz Suelto</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>14400.0</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Arroz Diana lb</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:54:45 COT 2020</t>
+  </si>
+  <si>
+    <t>venta prueba</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>51000.0</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Wed Jun 03 18:51:06 COT 2020</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Atun Isabel</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5400.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Thu Jun 04 20:21:53 COT 2020</t>
+  </si>
+  <si>
+    <t>Jairo</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1800.0</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>unidades</t>
-  </si>
-  <si>
-    <t>4000.0</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>bombones</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>5000.0</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>frutiño</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>6000.0</t>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Sat Jun 06 11:42:24 COT 2020</t>
+  </si>
+  <si>
+    <t>DevolucionSalida</t>
+  </si>
+  <si>
+    <t>3600.0</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Sat Jun 06 17:17:19 COT 2020</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>8000.0</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Sat Jun 06 18:05:25 COT 2020</t>
+  </si>
+  <si>
+    <t>jhoan cliente</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1500.0</t>
   </si>
 </sst>
 </file>
@@ -236,7 +356,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -251,59 +371,549 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="L5" t="n">
-        <v>15000.0</v>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="L19" t="n">
+        <v>216100.0</v>
       </c>
     </row>
   </sheetData>

--- a/reporteSalida.xlsx
+++ b/reporteSalida.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -47,49 +47,199 @@
     <t>Valor_VentaTotal</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:22:03 COT 2020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Cliente no registrado</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Cepillo Colgate</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>45000.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:27:55 COT 2020</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Arroz Suelto</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>14400.0</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Arroz Diana lb</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Mon Jun 01 18:54:45 COT 2020</t>
+  </si>
+  <si>
+    <t>venta prueba</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>51000.0</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Wed Jun 03 18:51:06 COT 2020</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Atun Isabel</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5400.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Thu Jun 04 20:21:53 COT 2020</t>
+  </si>
+  <si>
+    <t>Jairo</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1800.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Sat Jun 06 11:42:24 COT 2020</t>
+  </si>
+  <si>
+    <t>DevolucionSalida</t>
+  </si>
+  <si>
+    <t>3600.0</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Sat Jun 06 17:17:19 COT 2020</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>8000.0</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Sat Jun 06 18:05:25 COT 2020</t>
+  </si>
+  <si>
+    <t>jhoan cliente</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
     <t>Sun Jun 07 19:08:02 COT 2020</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>vendedor1</t>
   </si>
   <si>
-    <t>Venta</t>
-  </si>
-  <si>
-    <t>jhoan cliente</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Atun Isabel</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>8000.0</t>
-  </si>
-  <si>
     <t>63</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Arroz Diana lb</t>
-  </si>
-  <si>
-    <t>3000.0</t>
   </si>
 </sst>
 </file>
@@ -218,7 +368,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -233,24 +383,619 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="L4" t="n">
-        <v>11000.0</v>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="L21" t="n">
+        <v>227100.0</v>
       </c>
     </row>
   </sheetData>

--- a/reporteSalida.xlsx
+++ b/reporteSalida.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -47,49 +47,121 @@
     <t>Valor_VentaTotal</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Sun Jun 07 19:08:02 COT 2020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>vendedor1</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 02:10:46 COT 2020</t>
+  </si>
+  <si>
+    <t>devolucion</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>DevolucionSalida</t>
+  </si>
+  <si>
+    <t>bairon</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>frutiño</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>gelatina</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 02:11:09 COT 2020</t>
+  </si>
+  <si>
+    <t>prestamo</t>
+  </si>
+  <si>
+    <t>PrestamoSalida</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>vive 100</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>shampoo 10ml</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Sun Jun 07 03:05:05 COT 2020</t>
+  </si>
+  <si>
+    <t>venta</t>
   </si>
   <si>
     <t>Venta</t>
   </si>
   <si>
-    <t>jhoan cliente</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Atun Isabel</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>8000.0</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Arroz Diana lb</t>
-  </si>
-  <si>
-    <t>3000.0</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>bombones</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 03:06:22 COT 2020</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 16:38:05 COT 2020</t>
+  </si>
+  <si>
+    <t>Cliente no registrado</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Fri Jun 05 16:40:28 COT 2020</t>
   </si>
 </sst>
 </file>
@@ -215,7 +287,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -233,13 +305,13 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -249,8 +321,358 @@
       </c>
     </row>
     <row r="4">
-      <c r="L4" t="n">
-        <v>11000.0</v>
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="L14" t="n">
+        <v>15000.0</v>
       </c>
     </row>
   </sheetData>
